--- a/VHDL - PROJECT/ControlUnit.xlsx
+++ b/VHDL - PROJECT/ControlUnit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Documents\GitHub\vonNeumann-RISC-Processor-CMPN301\VHDL - PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B94ABA1-13CC-4E98-9AE4-AECC15FCDDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE0BAB7-BB17-4E55-8D56-F00D9D0FF4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{9AB7CBDB-2903-4B43-8724-B8F9F56DAB9F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="80">
   <si>
     <t>Spselect</t>
   </si>
@@ -238,6 +238,45 @@
   </si>
   <si>
     <t>01</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Ret</t>
+  </si>
+  <si>
+    <t>21:18</t>
+  </si>
+  <si>
+    <t>17:16</t>
+  </si>
+  <si>
+    <t>13:12</t>
+  </si>
+  <si>
+    <t>11:10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4:3</t>
   </si>
 </sst>
 </file>
@@ -297,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="180"/>
@@ -316,6 +355,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,420 +775,464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65687CC-1941-4D8F-87F6-9FFAC1C955AA}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="4.85546875" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="6" width="4.85546875" customWidth="1"/>
+    <col min="7" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="4.85546875" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="66.75" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="C1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="2">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="11"/>
+    </row>
+    <row r="2" spans="1:18" ht="66.75" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C5" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C6" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B9" s="3">
         <v>7</v>
-      </c>
-      <c r="C8" s="7">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3">
-        <v>8</v>
       </c>
       <c r="C9" s="7">
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>40</v>
@@ -1168,36 +1253,42 @@
         <v>40</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="7">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>40</v>
@@ -1218,80 +1309,92 @@
         <v>40</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="3">
+        <v>39</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="3">
         <v>1</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="R11" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B12" s="3">
         <v>10</v>
-      </c>
-      <c r="C11" s="7">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" s="3">
-        <v>1</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3">
-        <v>11</v>
       </c>
       <c r="C12" s="7">
         <v>7</v>
@@ -1300,7 +1403,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>40</v>
@@ -1318,466 +1421,526 @@
         <v>40</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C14" s="7">
         <v>8</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="3">
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1</v>
       </c>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="R14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B15" s="3">
         <v>13</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C15" s="7">
         <v>9</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15" s="3">
         <v>1</v>
       </c>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B16" s="3">
         <v>14</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C16" s="7">
         <v>10</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="3">
         <v>1</v>
       </c>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C17" s="7">
         <v>11</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="D17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="7"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C18" s="7">
         <v>12</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="D18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="7"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="2" t="s">
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="2" t="s">
+      <c r="I19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="O19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="3">
         <v>18</v>
       </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="2" t="s">
+      <c r="I20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="O20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C21" s="7">
         <v>6</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="7" t="s">
+      <c r="E21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="3">
         <v>20</v>
-      </c>
-      <c r="C21" s="7">
-        <v>7</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="3">
-        <v>21</v>
       </c>
       <c r="C22" s="7">
         <v>7</v>
@@ -1798,293 +1961,441 @@
         <v>39</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>40</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="3">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B24" s="3">
         <v>22</v>
       </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="H24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B25" s="3">
         <v>23</v>
       </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="7"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="H25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="7"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B26" s="3">
         <v>24</v>
       </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O25" s="3">
-        <v>0</v>
-      </c>
-      <c r="P25" s="7"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="H26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="7"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B27" s="3">
         <v>25</v>
       </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="7"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="7"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B28" s="3">
         <v>26</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C28" s="7">
         <v>13</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="7"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="D28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="7"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C29" s="7">
         <v>14</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="7"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="D29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="7"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B30" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C30" s="7">
         <v>15</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="7"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
